--- a/data/case1/11/Plm2_3.xlsx
+++ b/data/case1/11/Plm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.28949607038090619</v>
+        <v>-0.36992273206928417</v>
       </c>
       <c r="B1" s="0">
-        <v>0.28891194761482097</v>
+        <v>0.36888264975718243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20424831231518681</v>
+        <v>-0.28161991232783201</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20257348388929231</v>
+        <v>0.27832937569594662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.099630657200094674</v>
+        <v>-0.175376036625849</v>
       </c>
       <c r="B3" s="0">
-        <v>0.099315230486517692</v>
+        <v>0.17435402132673161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.087315230745993233</v>
+        <v>-0.16235402144005207</v>
       </c>
       <c r="B4" s="0">
-        <v>0.08706351971873616</v>
+        <v>0.16143260611259613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.081063520726498695</v>
+        <v>-0.15543260652669399</v>
       </c>
       <c r="B5" s="0">
-        <v>0.080583398943970153</v>
+        <v>0.15358399000643175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.04693042353633059</v>
+        <v>-0.082850861699649947</v>
       </c>
       <c r="B6" s="0">
-        <v>0.046901135541130845</v>
+        <v>0.08275270041032412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.026901136751339649</v>
+        <v>-0.062752700916473003</v>
       </c>
       <c r="B7" s="0">
-        <v>0.026868863442841118</v>
+        <v>0.062544559480537387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0068688646570942424</v>
+        <v>-0.042544559990777664</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0068642460908323599</v>
+        <v>0.042410702034811898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0008642471239177496</v>
+        <v>-0.03641070247176792</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00086092764328693505</v>
+        <v>0.036311457487415488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0051390713234482632</v>
+        <v>-0.030311457927894025</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0051368891535972239</v>
+        <v>0.030302257998577886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0096368881398838369</v>
+        <v>-0.025802258430459801</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0096374428558156922</v>
+        <v>0.025787044529078429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.015637441823045162</v>
+        <v>-0.019787044970023704</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.015685432358214069</v>
+        <v>0.019747303228684565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.021685431330807248</v>
+        <v>-0.013747303672284161</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.021714687290804058</v>
+        <v>0.013739890753538653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027079034707591099</v>
+        <v>-0.0017398912309367631</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027049240678127973</v>
+        <v>0.0017343817412802665</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021049241706374566</v>
+        <v>-0.021053892452812306</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021025857868986364</v>
+        <v>0.02102809849884224</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015025858900556965</v>
+        <v>-0.015028098944527724</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003539213786166</v>
+        <v>0.015004452756143927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090035402497301575</v>
+        <v>-0.0090044532036870351</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999989238318534</v>
+        <v>0.0089999995353817752</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.074663636319698412</v>
+        <v>-0.077262737841508056</v>
       </c>
       <c r="B18" s="0">
-        <v>0.074605603987755842</v>
+        <v>0.07718605347760743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.056561097561067974</v>
+        <v>-0.068186053885264997</v>
       </c>
       <c r="B19" s="0">
-        <v>0.056174947085971372</v>
+        <v>0.067608611293380694</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012756909170591</v>
+        <v>-0.018013865171068844</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004163539817597</v>
+        <v>0.018004324470101807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041645708716089</v>
+        <v>-0.009004324888271853</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999989678961612</v>
+        <v>0.0089999995814160627</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093942827720224997</v>
+        <v>-0.093953339489967647</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093632221280611105</v>
+        <v>0.093638418275507007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084632222321277872</v>
+        <v>-0.084638418699111817</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126039342729442</v>
+        <v>0.084127611097167154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126040832020983</v>
+        <v>-0.042127611709958934</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998502143754</v>
+        <v>0.041999999383934394</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.027652976433095944</v>
+        <v>-0.0647331287339874</v>
       </c>
       <c r="B25" s="0">
-        <v>0.027634739428926025</v>
+        <v>0.064617968646125234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.021634740454292256</v>
+        <v>-0.058617969074294507</v>
       </c>
       <c r="B26" s="0">
-        <v>0.021614275667094063</v>
+        <v>0.058474530826071458</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.015614276693687756</v>
+        <v>-0.038414033178322704</v>
       </c>
       <c r="B27" s="0">
-        <v>0.015541952402977621</v>
+        <v>0.038076058700554416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0095419534339971079</v>
+        <v>-0.032076059134241497</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0095013654099904699</v>
+        <v>0.031855136189531841</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0024986334786039066</v>
+        <v>-0.019855136658938122</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0025083733366280114</v>
+        <v>0.019763626873585238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.022508372121039955</v>
+        <v>0.00023637261192899217</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.022647395349315591</v>
+        <v>-0.00024704742201953067</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0015255158961906545</v>
+        <v>0.015247046935289887</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.001531038600491641</v>
+        <v>-0.015259266063043952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.022531037376914753</v>
+        <v>-0.021387101311943546</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.022560476167489796</v>
+        <v>0.021368926733398297</v>
       </c>
     </row>
   </sheetData>
